--- a/Project_V/Assets/ExcelFiles/armyunit.xlsx
+++ b/Project_V/Assets/ExcelFiles/armyunit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC69B01-79EA-420B-92B8-7719FD92315B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E80D5D6-3B1C-467A-B355-98C1E4FCE166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="2140" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="namelist" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>Index</t>
   </si>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Battalion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>APO</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -41,63 +37,54 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>24th Infantry Regiment</t>
-  </si>
-  <si>
-    <t>1st Infantry Regiment</t>
-  </si>
-  <si>
-    <t>1st Infantry Regiment</t>
+    <t>영국 원정군</t>
+  </si>
+  <si>
+    <t>1st 대대</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>17th Infantry Regiment</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1st Battalion</t>
-  </si>
-  <si>
-    <t>2nd Battalion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>4th Battalion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>8th Battalion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>British Expeditionary Forces</t>
-  </si>
-  <si>
-    <t>5th Battalion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>6th Battalion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1th Battalion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>3th Battalion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>2rd Battalion</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t>대대</t>
+  </si>
+  <si>
+    <t>2nd 대대</t>
+  </si>
+  <si>
+    <t>4th 대대</t>
+  </si>
+  <si>
+    <t>8th 대대</t>
+  </si>
+  <si>
+    <t>2rd 대대</t>
+  </si>
+  <si>
+    <t>3th 대대</t>
+  </si>
+  <si>
+    <t>5th 대대</t>
+  </si>
+  <si>
+    <t>6th 대대</t>
+  </si>
+  <si>
+    <t>1th 대대</t>
+  </si>
+  <si>
+    <t>24th 보병 연대</t>
+  </si>
+  <si>
+    <t>1st 보병 연대</t>
+  </si>
+  <si>
+    <t>17th 보병 연대</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +245,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -453,7 +448,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -583,17 +578,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -723,26 +707,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,18 +1104,18 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="27.58203125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1142,221 +1123,222 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>123</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>123</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2">
+        <v>123</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>123</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>544</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>544</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>544</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2">
+        <v>544</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>237</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
-        <v>123</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2">
+        <v>237</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
-        <v>123</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>237</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="D4" s="3">
-        <v>123</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
-        <v>123</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="D13" s="2">
+        <v>237</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3">
-        <v>544</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3">
-        <v>544</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3">
-        <v>544</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3">
-        <v>544</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3">
-        <v>237</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3">
-        <v>237</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>237</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3">
-        <v>237</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project_V/Assets/ExcelFiles/armyunit.xlsx
+++ b/Project_V/Assets/ExcelFiles/armyunit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\Project_V\Project_V\Assets\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E80D5D6-3B1C-467A-B355-98C1E4FCE166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2A8C52-D9E6-4F23-83BD-ADB3DB33B1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="7395" yWindow="915" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="namelist" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>대대</t>
-  </si>
-  <si>
     <t>2nd 대대</t>
   </si>
   <si>
@@ -78,6 +75,10 @@
   </si>
   <si>
     <t>17th 보병 연대</t>
+  </si>
+  <si>
+    <t>Battalion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1104,18 +1105,18 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.58203125" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="5" width="41.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1132,12 +1133,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -1149,15 +1150,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>123</v>
@@ -1166,15 +1167,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2">
         <v>123</v>
@@ -1183,15 +1184,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>123</v>
@@ -1200,15 +1201,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>544</v>
@@ -1217,15 +1218,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>544</v>
@@ -1234,15 +1235,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
         <v>544</v>
@@ -1251,15 +1252,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2">
         <v>544</v>
@@ -1268,15 +1269,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
         <v>237</v>
@@ -1285,15 +1286,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>237</v>
@@ -1302,15 +1303,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2">
         <v>237</v>
@@ -1319,15 +1320,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
         <v>237</v>

--- a/Project_V/Assets/ExcelFiles/armyunit.xlsx
+++ b/Project_V/Assets/ExcelFiles/armyunit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2A8C52-D9E6-4F23-83BD-ADB3DB33B1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E288E558-213E-40B8-9095-769AC98BD260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7395" yWindow="915" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="7250" yWindow="980" windowWidth="26890" windowHeight="15670" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="namelist" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="23">
   <si>
     <t>Index</t>
   </si>
@@ -47,37 +47,66 @@
     <t>2nd 대대</t>
   </si>
   <si>
-    <t>4th 대대</t>
-  </si>
-  <si>
-    <t>8th 대대</t>
-  </si>
-  <si>
-    <t>2rd 대대</t>
-  </si>
-  <si>
     <t>3th 대대</t>
   </si>
   <si>
-    <t>5th 대대</t>
-  </si>
-  <si>
-    <t>6th 대대</t>
+    <t>Battalion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corps</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1군단</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2군단</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3군단</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕립 얼스터 보병 연대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕립 이스트켄트 보병 연대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>헌팅던셔 보병 연대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이스트서리 보병 연대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨스트서리 보병 연대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙와치 보병 연대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕립 하이랜드 보병 연대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕립 스코틀랜드 보병 연대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>1th 대대</t>
-  </si>
-  <si>
-    <t>24th 보병 연대</t>
-  </si>
-  <si>
-    <t>1st 보병 연대</t>
-  </si>
-  <si>
-    <t>17th 보병 연대</t>
-  </si>
-  <si>
-    <t>Battalion</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨스트켄트 보병 연대</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -721,11 +750,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1102,239 +1131,580 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.625" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="41.5" customWidth="1"/>
+    <col min="1" max="1" width="9.4140625" customWidth="1"/>
+    <col min="2" max="2" width="15.4140625" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" customWidth="1"/>
+    <col min="4" max="4" width="23.9140625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="F2" s="2">
         <v>123</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
         <v>123</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
         <v>123</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2">
         <v>123</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>544</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
-        <v>544</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2">
-        <v>544</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2">
-        <v>544</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2">
-        <v>237</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <v>237</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2">
-        <v>237</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="2">
         <v>237</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Project_V/Assets/ExcelFiles/armyunit.xlsx
+++ b/Project_V/Assets/ExcelFiles/armyunit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unityproject\Project_V\Project_V\Assets\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E288E558-213E-40B8-9095-769AC98BD260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE7DCA0-D1BB-4C5D-9AEF-79676C0F2A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7250" yWindow="980" windowWidth="26890" windowHeight="15670" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="namelist" sheetId="1" r:id="rId1"/>
@@ -1134,20 +1134,20 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.4140625" customWidth="1"/>
-    <col min="2" max="2" width="15.4140625" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" customWidth="1"/>
-    <col min="4" max="4" width="23.9140625" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
